--- a/Data/Wind Power.xlsx
+++ b/Data/Wind Power.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/Progressive Hedging /Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/Benders-Decomposition/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB5C15-F4E6-E741-89AC-536ABC9830B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BEA7D3-7DF3-2B48-8CE0-C76542C6EE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19600" xr2:uid="{EDF38AB8-B67A-6545-84A8-C231FAB8949A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19600" activeTab="1" xr2:uid="{EDF38AB8-B67A-6545-84A8-C231FAB8949A}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial values" sheetId="7" r:id="rId1"/>
@@ -510,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690F904E-92CB-A441-A858-D728B93340E4}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="292" zoomScaleNormal="137" workbookViewId="0">
+    <sheetView zoomScale="292" zoomScaleNormal="137" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6734CF1-7336-B242-BB78-8AD8C045F5E6}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="297" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,8 +641,8 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f>-LN(B5)/5</f>
-        <v>4.0936230472270511E-2</v>
+        <f>ROUND(-LN(B5)/5,4)</f>
+        <v>4.0899999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.81490710619906204</v>
+        <v>0.81489999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
